--- a/build/output_place/12월_키워드보고서_acrogym11_naver.xlsx
+++ b/build/output_place/12월_키워드보고서_acrogym11_naver.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="221">
   <si>
     <t>검색어 평균/합계 비교</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -800,103 +800,10 @@
     <t>광고그룹</t>
   </si>
   <si>
-    <t>광운대피티</t>
+    <t>PC</t>
   </si>
   <si>
     <t>모바일</t>
-  </si>
-  <si>
-    <t>광운대헬스장</t>
-  </si>
-  <si>
-    <t>돌곶이PT</t>
-  </si>
-  <si>
-    <t>돌곶이헬스</t>
-  </si>
-  <si>
-    <t>돌곶이헬스장</t>
-  </si>
-  <si>
-    <t>석계PT</t>
-  </si>
-  <si>
-    <t>석계역헬스</t>
-  </si>
-  <si>
-    <t>석계역헬스장</t>
-  </si>
-  <si>
-    <t>석관동헬스</t>
-  </si>
-  <si>
-    <t>성북구PT</t>
-  </si>
-  <si>
-    <t>성북구헬스</t>
-  </si>
-  <si>
-    <t>아크로짐</t>
-  </si>
-  <si>
-    <t>아크로짐논현점</t>
-  </si>
-  <si>
-    <t>아크로짐외대점</t>
-  </si>
-  <si>
-    <t>외대PT</t>
-  </si>
-  <si>
-    <t>외대피티</t>
-  </si>
-  <si>
-    <t>외대헬스</t>
-  </si>
-  <si>
-    <t>외대헬스장</t>
-  </si>
-  <si>
-    <t>이문동PT</t>
-  </si>
-  <si>
-    <t>이문동헬스</t>
-  </si>
-  <si>
-    <t>이문동헬스장</t>
-  </si>
-  <si>
-    <t>장위동헬스</t>
-  </si>
-  <si>
-    <t>장위동헬스장</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>광운대역헬스장</t>
-  </si>
-  <si>
-    <t>성북구피티</t>
-  </si>
-  <si>
-    <t>아크로짐구리역점</t>
-  </si>
-  <si>
-    <t>월계동헬스</t>
-  </si>
-  <si>
-    <t>월계동헬스장</t>
-  </si>
-  <si>
-    <t>월계헬스장</t>
-  </si>
-  <si>
-    <t>장위동PT</t>
   </si>
 </sst>
 </file>
@@ -915,7 +822,7 @@
     <numFmt numFmtId="182" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1207,6 +1114,11 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1508,7 +1420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1978,6 +1890,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="백분율" xfId="4" builtinId="5"/>
@@ -14714,6 +14627,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO29" t="s" s="147">
+        <v>174</v>
+      </c>
+      <c r="AP29" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ29" t="n" s="147">
+        <v>105.0</v>
+      </c>
+      <c r="AR29" t="n" s="147">
+        <v>11.0</v>
+      </c>
+      <c r="AS29" t="n" s="147">
+        <v>10.48</v>
+      </c>
+      <c r="AT29" t="n" s="147">
+        <v>502.0</v>
+      </c>
+      <c r="AU29" t="n" s="147">
+        <v>5522.55</v>
+      </c>
+      <c r="AV29" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW29" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A30" s="103" t="s">
@@ -14862,6 +14802,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO30" t="s" s="147">
+        <v>174</v>
+      </c>
+      <c r="AP30" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ30" t="n" s="147">
+        <v>481.0</v>
+      </c>
+      <c r="AR30" t="n" s="147">
+        <v>16.0</v>
+      </c>
+      <c r="AS30" t="n" s="147">
+        <v>3.33</v>
+      </c>
+      <c r="AT30" t="n" s="147">
+        <v>761.0</v>
+      </c>
+      <c r="AU30" t="n" s="147">
+        <v>12176.45</v>
+      </c>
+      <c r="AV30" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW30" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A31" s="103" t="s">
@@ -15010,6 +14977,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO31" t="s" s="147">
+        <v>175</v>
+      </c>
+      <c r="AP31" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ31" t="n" s="147">
+        <v>170.0</v>
+      </c>
+      <c r="AR31" t="n" s="147">
+        <v>11.0</v>
+      </c>
+      <c r="AS31" t="n" s="147">
+        <v>6.48</v>
+      </c>
+      <c r="AT31" t="n" s="147">
+        <v>492.0</v>
+      </c>
+      <c r="AU31" t="n" s="147">
+        <v>5413.1</v>
+      </c>
+      <c r="AV31" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW31" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A32" s="103" t="s">
@@ -15158,6 +15152,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO32" t="s" s="147">
+        <v>175</v>
+      </c>
+      <c r="AP32" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ32" t="n" s="147">
+        <v>860.0</v>
+      </c>
+      <c r="AR32" t="n" s="147">
+        <v>28.0</v>
+      </c>
+      <c r="AS32" t="n" s="147">
+        <v>3.26</v>
+      </c>
+      <c r="AT32" t="n" s="147">
+        <v>798.0</v>
+      </c>
+      <c r="AU32" t="n" s="147">
+        <v>22342.1</v>
+      </c>
+      <c r="AV32" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW32" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="103" t="s">
@@ -15306,6 +15327,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO33" t="s" s="147">
+        <v>176</v>
+      </c>
+      <c r="AP33" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ33" t="n" s="147">
+        <v>153.0</v>
+      </c>
+      <c r="AR33" t="n" s="147">
+        <v>9.0</v>
+      </c>
+      <c r="AS33" t="n" s="147">
+        <v>5.89</v>
+      </c>
+      <c r="AT33" t="n" s="147">
+        <v>163.0</v>
+      </c>
+      <c r="AU33" t="n" s="147">
+        <v>1463.0</v>
+      </c>
+      <c r="AV33" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW33" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="103" t="s">
@@ -15454,6 +15502,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO34" t="s" s="147">
+        <v>176</v>
+      </c>
+      <c r="AP34" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ34" t="n" s="147">
+        <v>706.0</v>
+      </c>
+      <c r="AR34" t="n" s="147">
+        <v>28.0</v>
+      </c>
+      <c r="AS34" t="n" s="147">
+        <v>3.97</v>
+      </c>
+      <c r="AT34" t="n" s="147">
+        <v>820.0</v>
+      </c>
+      <c r="AU34" t="n" s="147">
+        <v>22968.0</v>
+      </c>
+      <c r="AV34" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW34" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="103" t="s">
@@ -15602,6 +15677,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO35" t="s" s="147">
+        <v>177</v>
+      </c>
+      <c r="AP35" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ35" t="n" s="147">
+        <v>90.0</v>
+      </c>
+      <c r="AR35" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS35" t="n" s="147">
+        <v>4.45</v>
+      </c>
+      <c r="AT35" t="n" s="147">
+        <v>105.0</v>
+      </c>
+      <c r="AU35" t="n" s="147">
+        <v>419.65</v>
+      </c>
+      <c r="AV35" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW35" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
@@ -15750,6 +15852,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO36" t="s" s="147">
+        <v>177</v>
+      </c>
+      <c r="AP36" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ36" t="n" s="147">
+        <v>617.0</v>
+      </c>
+      <c r="AR36" t="n" s="147">
+        <v>34.0</v>
+      </c>
+      <c r="AS36" t="n" s="147">
+        <v>5.52</v>
+      </c>
+      <c r="AT36" t="n" s="147">
+        <v>621.0</v>
+      </c>
+      <c r="AU36" t="n" s="147">
+        <v>21107.35</v>
+      </c>
+      <c r="AV36" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW36" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="103" t="s">
@@ -15898,6 +16027,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO37" t="s" s="147">
+        <v>184</v>
+      </c>
+      <c r="AP37" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ37" t="n" s="147">
+        <v>76.0</v>
+      </c>
+      <c r="AR37" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS37" t="n" s="147">
+        <v>1.32</v>
+      </c>
+      <c r="AT37" t="n" s="147">
+        <v>77.0</v>
+      </c>
+      <c r="AU37" t="n" s="147">
+        <v>77.0</v>
+      </c>
+      <c r="AV37" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW37" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="103" t="s">
@@ -16046,6 +16202,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO38" t="s" s="147">
+        <v>184</v>
+      </c>
+      <c r="AP38" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ38" t="n" s="147">
+        <v>588.0</v>
+      </c>
+      <c r="AR38" t="n" s="147">
+        <v>18.0</v>
+      </c>
+      <c r="AS38" t="n" s="147">
+        <v>3.07</v>
+      </c>
+      <c r="AT38" t="n" s="147">
+        <v>640.0</v>
+      </c>
+      <c r="AU38" t="n" s="147">
+        <v>11513.7</v>
+      </c>
+      <c r="AV38" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW38" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="103" t="s">
@@ -16194,6 +16377,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO39" t="s" s="147">
+        <v>185</v>
+      </c>
+      <c r="AP39" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ39" t="n" s="147">
+        <v>47.0</v>
+      </c>
+      <c r="AR39" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS39" t="n" s="147">
+        <v>8.52</v>
+      </c>
+      <c r="AT39" t="n" s="147">
+        <v>685.0</v>
+      </c>
+      <c r="AU39" t="n" s="147">
+        <v>2739.0</v>
+      </c>
+      <c r="AV39" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW39" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="103" t="s">
@@ -16342,6 +16552,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO40" t="s" s="147">
+        <v>185</v>
+      </c>
+      <c r="AP40" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ40" t="n" s="147">
+        <v>1282.0</v>
+      </c>
+      <c r="AR40" t="n" s="147">
+        <v>26.0</v>
+      </c>
+      <c r="AS40" t="n" s="147">
+        <v>2.03</v>
+      </c>
+      <c r="AT40" t="n" s="147">
+        <v>1094.0</v>
+      </c>
+      <c r="AU40" t="n" s="147">
+        <v>28439.95</v>
+      </c>
+      <c r="AV40" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW40" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="103" t="s">
@@ -16490,6 +16727,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO41" t="s" s="147">
+        <v>186</v>
+      </c>
+      <c r="AP41" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ41" t="n" s="147">
+        <v>54.0</v>
+      </c>
+      <c r="AR41" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS41" t="n" s="147">
+        <v>12.97</v>
+      </c>
+      <c r="AT41" t="n" s="147">
+        <v>622.0</v>
+      </c>
+      <c r="AU41" t="n" s="147">
+        <v>4357.1</v>
+      </c>
+      <c r="AV41" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW41" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="103" t="s">
@@ -16638,6 +16902,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO42" t="s" s="147">
+        <v>186</v>
+      </c>
+      <c r="AP42" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ42" t="n" s="147">
+        <v>1215.0</v>
+      </c>
+      <c r="AR42" t="n" s="147">
+        <v>38.0</v>
+      </c>
+      <c r="AS42" t="n" s="147">
+        <v>3.13</v>
+      </c>
+      <c r="AT42" t="n" s="147">
+        <v>852.0</v>
+      </c>
+      <c r="AU42" t="n" s="147">
+        <v>32362.55</v>
+      </c>
+      <c r="AV42" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW42" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="103" t="s">
@@ -16786,6 +17077,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO43" t="s" s="147">
+        <v>187</v>
+      </c>
+      <c r="AP43" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ43" t="n" s="147">
+        <v>130.0</v>
+      </c>
+      <c r="AR43" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS43" t="n" s="147">
+        <v>5.39</v>
+      </c>
+      <c r="AT43" t="n" s="147">
+        <v>530.0</v>
+      </c>
+      <c r="AU43" t="n" s="147">
+        <v>3707.0</v>
+      </c>
+      <c r="AV43" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW43" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="103" t="s">
@@ -16934,6 +17252,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO44" t="s" s="147">
+        <v>187</v>
+      </c>
+      <c r="AP44" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ44" t="n" s="147">
+        <v>1022.0</v>
+      </c>
+      <c r="AR44" t="n" s="147">
+        <v>44.0</v>
+      </c>
+      <c r="AS44" t="n" s="147">
+        <v>4.31</v>
+      </c>
+      <c r="AT44" t="n" s="147">
+        <v>566.0</v>
+      </c>
+      <c r="AU44" t="n" s="147">
+        <v>24916.1</v>
+      </c>
+      <c r="AV44" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW44" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="103" t="s">
@@ -17082,6 +17427,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO45" t="s" s="147">
+        <v>188</v>
+      </c>
+      <c r="AP45" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ45" t="n" s="147">
+        <v>92.0</v>
+      </c>
+      <c r="AR45" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS45" t="n" s="147">
+        <v>4.35</v>
+      </c>
+      <c r="AT45" t="n" s="147">
+        <v>758.0</v>
+      </c>
+      <c r="AU45" t="n" s="147">
+        <v>3033.8</v>
+      </c>
+      <c r="AV45" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW45" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="103" t="s">
@@ -17230,6 +17602,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO46" t="s" s="147">
+        <v>189</v>
+      </c>
+      <c r="AP46" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ46" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AR46" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AS46" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AT46" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AU46" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AV46" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW46" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="103" t="s">
@@ -17378,6 +17777,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO47" t="s" s="147">
+        <v>190</v>
+      </c>
+      <c r="AP47" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ47" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AR47" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AS47" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AT47" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AU47" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AV47" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW47" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="103" t="s">
@@ -17526,6 +17952,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO48" t="s" s="147">
+        <v>191</v>
+      </c>
+      <c r="AP48" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ48" t="n" s="147">
+        <v>2.0</v>
+      </c>
+      <c r="AR48" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AS48" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AT48" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AU48" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AV48" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW48" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="103" t="s">
@@ -17674,6 +18127,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO49" t="s" s="147">
+        <v>192</v>
+      </c>
+      <c r="AP49" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ49" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AR49" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AS49" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AT49" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AU49" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AV49" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW49" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="103" t="s">
@@ -17822,6 +18302,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO50" t="s" s="147">
+        <v>193</v>
+      </c>
+      <c r="AP50" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ50" t="n" s="147">
+        <v>3.0</v>
+      </c>
+      <c r="AR50" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AS50" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AT50" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AU50" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AV50" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW50" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="103" t="s">
@@ -17970,6 +18477,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO51" t="s" s="147">
+        <v>201</v>
+      </c>
+      <c r="AP51" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ51" t="n" s="147">
+        <v>13.0</v>
+      </c>
+      <c r="AR51" t="n" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="AS51" t="n" s="147">
+        <v>7.7</v>
+      </c>
+      <c r="AT51" t="n" s="147">
+        <v>77.0</v>
+      </c>
+      <c r="AU51" t="n" s="147">
+        <v>77.0</v>
+      </c>
+      <c r="AV51" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW51" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="103" t="s">
@@ -18118,6 +18652,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO52" t="s" s="147">
+        <v>201</v>
+      </c>
+      <c r="AP52" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ52" t="n" s="147">
+        <v>143.0</v>
+      </c>
+      <c r="AR52" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS52" t="n" s="147">
+        <v>4.2</v>
+      </c>
+      <c r="AT52" t="n" s="147">
+        <v>907.0</v>
+      </c>
+      <c r="AU52" t="n" s="147">
+        <v>5439.5</v>
+      </c>
+      <c r="AV52" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW52" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="103" t="s">
@@ -18266,6 +18827,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO53" t="s" s="147">
+        <v>202</v>
+      </c>
+      <c r="AP53" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ53" t="n" s="147">
+        <v>140.0</v>
+      </c>
+      <c r="AR53" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS53" t="n" s="147">
+        <v>5.0</v>
+      </c>
+      <c r="AT53" t="n" s="147">
+        <v>687.0</v>
+      </c>
+      <c r="AU53" t="n" s="147">
+        <v>4807.0</v>
+      </c>
+      <c r="AV53" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW53" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="103" t="s">
@@ -18414,6 +19002,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO54" t="s" s="147">
+        <v>202</v>
+      </c>
+      <c r="AP54" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ54" t="n" s="147">
+        <v>823.0</v>
+      </c>
+      <c r="AR54" t="n" s="147">
+        <v>28.0</v>
+      </c>
+      <c r="AS54" t="n" s="147">
+        <v>3.41</v>
+      </c>
+      <c r="AT54" t="n" s="147">
+        <v>898.0</v>
+      </c>
+      <c r="AU54" t="n" s="147">
+        <v>25131.7</v>
+      </c>
+      <c r="AV54" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW54" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="103" t="s">
@@ -18562,6 +19177,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO55" t="s" s="147">
+        <v>203</v>
+      </c>
+      <c r="AP55" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ55" t="n" s="147">
+        <v>71.0</v>
+      </c>
+      <c r="AR55" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS55" t="n" s="147">
+        <v>5.64</v>
+      </c>
+      <c r="AT55" t="n" s="147">
+        <v>602.0</v>
+      </c>
+      <c r="AU55" t="n" s="147">
+        <v>2409.55</v>
+      </c>
+      <c r="AV55" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW55" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="103" t="s">
@@ -18710,6 +19352,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO56" t="s" s="147">
+        <v>203</v>
+      </c>
+      <c r="AP56" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ56" t="n" s="147">
+        <v>855.0</v>
+      </c>
+      <c r="AR56" t="n" s="147">
+        <v>27.0</v>
+      </c>
+      <c r="AS56" t="n" s="147">
+        <v>3.16</v>
+      </c>
+      <c r="AT56" t="n" s="147">
+        <v>1107.0</v>
+      </c>
+      <c r="AU56" t="n" s="147">
+        <v>29901.85</v>
+      </c>
+      <c r="AV56" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW56" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="103" t="s">
@@ -18858,6 +19527,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO57" t="s" s="147">
+        <v>204</v>
+      </c>
+      <c r="AP57" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ57" t="n" s="147">
+        <v>134.0</v>
+      </c>
+      <c r="AR57" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS57" t="n" s="147">
+        <v>5.23</v>
+      </c>
+      <c r="AT57" t="n" s="147">
+        <v>1336.0</v>
+      </c>
+      <c r="AU57" t="n" s="147">
+        <v>9350.55</v>
+      </c>
+      <c r="AV57" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW57" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="103" t="s">
@@ -19006,6 +19702,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO58" t="s" s="147">
+        <v>204</v>
+      </c>
+      <c r="AP58" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ58" t="n" s="147">
+        <v>823.0</v>
+      </c>
+      <c r="AR58" t="n" s="147">
+        <v>20.0</v>
+      </c>
+      <c r="AS58" t="n" s="147">
+        <v>2.44</v>
+      </c>
+      <c r="AT58" t="n" s="147">
+        <v>962.0</v>
+      </c>
+      <c r="AU58" t="n" s="147">
+        <v>19241.75</v>
+      </c>
+      <c r="AV58" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW58" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="103" t="s">
@@ -19154,6 +19877,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO59" t="s" s="147">
+        <v>205</v>
+      </c>
+      <c r="AP59" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ59" t="n" s="147">
+        <v>148.0</v>
+      </c>
+      <c r="AR59" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS59" t="n" s="147">
+        <v>4.73</v>
+      </c>
+      <c r="AT59" t="n" s="147">
+        <v>615.0</v>
+      </c>
+      <c r="AU59" t="n" s="147">
+        <v>4301.55</v>
+      </c>
+      <c r="AV59" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW59" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="103" t="s">
@@ -19302,6 +20052,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO60" t="s" s="147">
+        <v>205</v>
+      </c>
+      <c r="AP60" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ60" t="n" s="147">
+        <v>869.0</v>
+      </c>
+      <c r="AR60" t="n" s="147">
+        <v>30.0</v>
+      </c>
+      <c r="AS60" t="n" s="147">
+        <v>3.46</v>
+      </c>
+      <c r="AT60" t="n" s="147">
+        <v>922.0</v>
+      </c>
+      <c r="AU60" t="n" s="147">
+        <v>27647.4</v>
+      </c>
+      <c r="AV60" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW60" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="103" t="s">
@@ -19450,6 +20227,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO61" t="s" s="147">
+        <v>206</v>
+      </c>
+      <c r="AP61" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ61" t="n" s="147">
+        <v>73.0</v>
+      </c>
+      <c r="AR61" t="n" s="147">
+        <v>6.0</v>
+      </c>
+      <c r="AS61" t="n" s="147">
+        <v>8.22</v>
+      </c>
+      <c r="AT61" t="n" s="147">
+        <v>292.0</v>
+      </c>
+      <c r="AU61" t="n" s="147">
+        <v>1749.0</v>
+      </c>
+      <c r="AV61" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW61" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="103" t="s">
@@ -19598,6 +20402,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO62" t="s" s="147">
+        <v>206</v>
+      </c>
+      <c r="AP62" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ62" t="n" s="147">
+        <v>883.0</v>
+      </c>
+      <c r="AR62" t="n" s="147">
+        <v>34.0</v>
+      </c>
+      <c r="AS62" t="n" s="147">
+        <v>3.86</v>
+      </c>
+      <c r="AT62" t="n" s="147">
+        <v>972.0</v>
+      </c>
+      <c r="AU62" t="n" s="147">
+        <v>33063.25</v>
+      </c>
+      <c r="AV62" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW62" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="103" t="s">
@@ -19746,6 +20577,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO63" t="s" s="147">
+        <v>207</v>
+      </c>
+      <c r="AP63" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ63" t="n" s="147">
+        <v>71.0</v>
+      </c>
+      <c r="AR63" t="n" s="147">
+        <v>4.0</v>
+      </c>
+      <c r="AS63" t="n" s="147">
+        <v>5.64</v>
+      </c>
+      <c r="AT63" t="n" s="147">
+        <v>212.0</v>
+      </c>
+      <c r="AU63" t="n" s="147">
+        <v>847.0</v>
+      </c>
+      <c r="AV63" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW63" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="103" t="s">
@@ -19894,6 +20752,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO64" t="s" s="147">
+        <v>207</v>
+      </c>
+      <c r="AP64" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ64" t="n" s="147">
+        <v>1509.0</v>
+      </c>
+      <c r="AR64" t="n" s="147">
+        <v>42.0</v>
+      </c>
+      <c r="AS64" t="n" s="147">
+        <v>2.79</v>
+      </c>
+      <c r="AT64" t="n" s="147">
+        <v>1017.0</v>
+      </c>
+      <c r="AU64" t="n" s="147">
+        <v>42715.75</v>
+      </c>
+      <c r="AV64" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW64" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="103" t="s">
@@ -20042,6 +20927,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO65" t="s" s="147">
+        <v>208</v>
+      </c>
+      <c r="AP65" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ65" t="n" s="147">
+        <v>198.0</v>
+      </c>
+      <c r="AR65" t="n" s="147">
+        <v>8.0</v>
+      </c>
+      <c r="AS65" t="n" s="147">
+        <v>4.05</v>
+      </c>
+      <c r="AT65" t="n" s="147">
+        <v>355.0</v>
+      </c>
+      <c r="AU65" t="n" s="147">
+        <v>2838.55</v>
+      </c>
+      <c r="AV65" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW65" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="103" t="s">
@@ -20190,6 +21102,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO66" t="s" s="147">
+        <v>208</v>
+      </c>
+      <c r="AP66" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ66" t="n" s="147">
+        <v>1150.0</v>
+      </c>
+      <c r="AR66" t="n" s="147">
+        <v>35.0</v>
+      </c>
+      <c r="AS66" t="n" s="147">
+        <v>3.05</v>
+      </c>
+      <c r="AT66" t="n" s="147">
+        <v>859.0</v>
+      </c>
+      <c r="AU66" t="n" s="147">
+        <v>30066.3</v>
+      </c>
+      <c r="AV66" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW66" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="103" t="s">
@@ -20338,6 +21277,33 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
+      <c r="AO67" t="s" s="147">
+        <v>209</v>
+      </c>
+      <c r="AP67" t="s" s="147">
+        <v>219</v>
+      </c>
+      <c r="AQ67" t="n" s="147">
+        <v>166.0</v>
+      </c>
+      <c r="AR67" t="n" s="147">
+        <v>7.0</v>
+      </c>
+      <c r="AS67" t="n" s="147">
+        <v>4.22</v>
+      </c>
+      <c r="AT67" t="n" s="147">
+        <v>1141.0</v>
+      </c>
+      <c r="AU67" t="n" s="147">
+        <v>7986.55</v>
+      </c>
+      <c r="AV67" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW67" t="n" s="147">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="103" t="s">
@@ -20485,6 +21451,33 @@
       <c r="AM68" s="82">
         <f t="shared" si="70"/>
         <v>0</v>
+      </c>
+      <c r="AO68" t="s" s="147">
+        <v>209</v>
+      </c>
+      <c r="AP68" t="s" s="147">
+        <v>220</v>
+      </c>
+      <c r="AQ68" t="n" s="147">
+        <v>1043.0</v>
+      </c>
+      <c r="AR68" t="n" s="147">
+        <v>32.0</v>
+      </c>
+      <c r="AS68" t="n" s="147">
+        <v>3.07</v>
+      </c>
+      <c r="AT68" t="n" s="147">
+        <v>704.0</v>
+      </c>
+      <c r="AU68" t="n" s="147">
+        <v>22527.45</v>
+      </c>
+      <c r="AV68" t="n" s="147">
+        <v>0.0</v>
+      </c>
+      <c r="AW68" t="n" s="147">
+        <v>0.0</v>
       </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.3">
@@ -28623,1965 +29616,733 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="3">
-        <v>219</v>
-      </c>
-      <c r="B29" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C29" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G29" t="n" s="108">
-        <v>2.8</v>
-      </c>
-      <c r="H29" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K29" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="3">
-        <v>221</v>
-      </c>
-      <c r="B30" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C30" t="n" s="106">
-        <v>68.0</v>
-      </c>
-      <c r="D30" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E30" t="n" s="108">
-        <v>594.0</v>
-      </c>
-      <c r="F30" t="n" s="108">
-        <v>594.0</v>
-      </c>
-      <c r="G30" t="n" s="108">
-        <v>2.2</v>
-      </c>
-      <c r="H30" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K30" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="3">
-        <v>222</v>
-      </c>
-      <c r="B31" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C31" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G31" t="n" s="108">
-        <v>2.8</v>
-      </c>
-      <c r="H31" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K31" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="3">
-        <v>223</v>
-      </c>
-      <c r="B32" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C32" t="n" s="106">
-        <v>13.0</v>
-      </c>
-      <c r="D32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G32" t="n" s="108">
-        <v>1.8</v>
-      </c>
-      <c r="H32" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K32" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="3">
-        <v>224</v>
-      </c>
-      <c r="B33" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C33" t="n" s="106">
-        <v>117.0</v>
-      </c>
-      <c r="D33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G33" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H33" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K33" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="3">
-        <v>225</v>
-      </c>
-      <c r="B34" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C34" t="n" s="106">
-        <v>8.0</v>
-      </c>
-      <c r="D34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G34" t="n" s="108">
-        <v>2.3</v>
-      </c>
-      <c r="H34" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K34" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="3">
-        <v>226</v>
-      </c>
-      <c r="B35" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C35" t="n" s="106">
-        <v>12.0</v>
-      </c>
-      <c r="D35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G35" t="n" s="108">
-        <v>2.5</v>
-      </c>
-      <c r="H35" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K35" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="3">
-        <v>227</v>
-      </c>
-      <c r="B36" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C36" t="n" s="106">
-        <v>152.0</v>
-      </c>
-      <c r="D36" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="E36" t="n" s="108">
-        <v>359.0</v>
-      </c>
-      <c r="F36" t="n" s="108">
-        <v>1078.0</v>
-      </c>
-      <c r="G36" t="n" s="108">
-        <v>2.5</v>
-      </c>
-      <c r="H36" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K36" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="3">
-        <v>228</v>
-      </c>
-      <c r="B37" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C37" t="n" s="106">
-        <v>16.0</v>
-      </c>
-      <c r="D37" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E37" t="n" s="108">
-        <v>561.0</v>
-      </c>
-      <c r="F37" t="n" s="108">
-        <v>561.0</v>
-      </c>
-      <c r="G37" t="n" s="108">
-        <v>1.6</v>
-      </c>
-      <c r="H37" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K37" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="3">
-        <v>229</v>
-      </c>
-      <c r="B38" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C38" t="n" s="106">
-        <v>11.0</v>
-      </c>
-      <c r="D38" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E38" t="n" s="108">
-        <v>2013.0</v>
-      </c>
-      <c r="F38" t="n" s="108">
-        <v>2013.0</v>
-      </c>
-      <c r="G38" t="n" s="108">
-        <v>2.4</v>
-      </c>
-      <c r="H38" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I38" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J38" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K38" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="3">
-        <v>230</v>
-      </c>
-      <c r="B39" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C39" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G39" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H39" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K39" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="3">
-        <v>231</v>
-      </c>
-      <c r="B40" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C40" t="n" s="106">
-        <v>124.0</v>
-      </c>
-      <c r="D40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G40" t="n" s="108">
-        <v>2.6</v>
-      </c>
-      <c r="H40" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K40" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="3">
-        <v>232</v>
-      </c>
-      <c r="B41" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C41" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G41" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H41" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K41" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="3">
-        <v>233</v>
-      </c>
-      <c r="B42" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C42" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G42" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H42" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K42" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="3">
-        <v>234</v>
-      </c>
-      <c r="B43" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C43" t="n" s="106">
-        <v>6.0</v>
-      </c>
-      <c r="D43" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F43" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G43" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H43" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I43" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J43" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K43" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="3">
-        <v>235</v>
-      </c>
-      <c r="B44" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C44" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G44" t="n" s="108">
-        <v>8.0</v>
-      </c>
-      <c r="H44" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K44" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="3">
-        <v>236</v>
-      </c>
-      <c r="B45" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C45" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D45" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E45" t="n" s="108">
-        <v>781.0</v>
-      </c>
-      <c r="F45" t="n" s="108">
-        <v>781.0</v>
-      </c>
-      <c r="G45" t="n" s="108">
-        <v>3.5</v>
-      </c>
-      <c r="H45" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K45" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="3">
-        <v>237</v>
-      </c>
-      <c r="B46" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C46" t="n" s="106">
-        <v>135.0</v>
-      </c>
-      <c r="D46" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="E46" t="n" s="108">
-        <v>2613.0</v>
-      </c>
-      <c r="F46" t="n" s="108">
-        <v>5225.0</v>
-      </c>
-      <c r="G46" t="n" s="108">
-        <v>4.2</v>
-      </c>
-      <c r="H46" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I46" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J46" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K46" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="3">
-        <v>238</v>
-      </c>
-      <c r="B47" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C47" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D47" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E47" t="n" s="108">
-        <v>4807.0</v>
-      </c>
-      <c r="F47" t="n" s="108">
-        <v>4807.0</v>
-      </c>
-      <c r="G47" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H47" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I47" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J47" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K47" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="3">
-        <v>239</v>
-      </c>
-      <c r="B48" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C48" t="n" s="106">
-        <v>8.0</v>
-      </c>
-      <c r="D48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G48" t="n" s="108">
-        <v>3.9</v>
-      </c>
-      <c r="H48" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K48" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="B49" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C49" t="n" s="106">
-        <v>31.0</v>
-      </c>
-      <c r="D49" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E49" t="n" s="108">
-        <v>990.0</v>
-      </c>
-      <c r="F49" t="n" s="108">
-        <v>990.0</v>
-      </c>
-      <c r="G49" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H49" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K49" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="3">
-        <v>241</v>
-      </c>
-      <c r="B50" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C50" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D50" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E50" t="n" s="108">
-        <v>869.0</v>
-      </c>
-      <c r="F50" t="n" s="108">
-        <v>869.0</v>
-      </c>
-      <c r="G50" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H50" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K50" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="3">
-        <v>242</v>
-      </c>
-      <c r="B51" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C51" t="n" s="106">
-        <v>13.0</v>
-      </c>
-      <c r="D51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G51" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H51" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K51" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="3">
-        <v>243</v>
-      </c>
-      <c r="B52" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C52" t="n" s="106">
-        <v>193.0</v>
-      </c>
-      <c r="D52" t="n" s="108">
-        <v>16.0</v>
-      </c>
-      <c r="E52" t="n" s="108">
-        <v>80.0</v>
-      </c>
-      <c r="F52" t="n" s="108">
-        <v>1287.0</v>
-      </c>
-      <c r="G52" t="n" s="108">
-        <v>1.2</v>
-      </c>
-      <c r="H52" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I52" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J52" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K52" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="3">
-        <v>245</v>
-      </c>
-      <c r="B53" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C53" t="n" s="106">
-        <v>13.0</v>
-      </c>
-      <c r="D53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G53" t="n" s="108">
-        <v>5.7</v>
-      </c>
-      <c r="H53" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K53" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="3">
-        <v>219</v>
-      </c>
-      <c r="B54" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C54" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G54" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H54" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K54" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="3">
-        <v>221</v>
-      </c>
-      <c r="B55" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C55" t="n" s="106">
-        <v>20.0</v>
-      </c>
-      <c r="D55" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E55" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F55" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G55" t="n" s="108">
-        <v>4.6</v>
-      </c>
-      <c r="H55" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I55" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J55" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K55" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="3">
-        <v>223</v>
-      </c>
-      <c r="B56" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C56" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D56" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E56" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F56" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G56" t="n" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="H56" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I56" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J56" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K56" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="3">
-        <v>226</v>
-      </c>
-      <c r="B57" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C57" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D57" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E57" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F57" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G57" t="n" s="108">
-        <v>6.0</v>
-      </c>
-      <c r="H57" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I57" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J57" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K57" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="3">
-        <v>227</v>
-      </c>
-      <c r="B58" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C58" t="n" s="106">
-        <v>41.0</v>
-      </c>
-      <c r="D58" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E58" t="n" s="108">
-        <v>209.0</v>
-      </c>
-      <c r="F58" t="n" s="108">
-        <v>209.0</v>
-      </c>
-      <c r="G58" t="n" s="108">
-        <v>4.1</v>
-      </c>
-      <c r="H58" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I58" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J58" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K58" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="3">
-        <v>228</v>
-      </c>
-      <c r="B59" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C59" t="n" s="106">
-        <v>7.0</v>
-      </c>
-      <c r="D59" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E59" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F59" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G59" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H59" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I59" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J59" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K59" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="3">
-        <v>229</v>
-      </c>
-      <c r="B60" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C60" t="n" s="106">
-        <v>7.0</v>
-      </c>
-      <c r="D60" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E60" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F60" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G60" t="n" s="108">
-        <v>2.9</v>
-      </c>
-      <c r="H60" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I60" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J60" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K60" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="3">
-        <v>246</v>
-      </c>
-      <c r="B61" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C61" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D61" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E61" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F61" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G61" t="n" s="108">
-        <v>6.0</v>
-      </c>
-      <c r="H61" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I61" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J61" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K61" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="3">
-        <v>230</v>
-      </c>
-      <c r="B62" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C62" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D62" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E62" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F62" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G62" t="n" s="108">
-        <v>4.2</v>
-      </c>
-      <c r="H62" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I62" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J62" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K62" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="3">
-        <v>231</v>
-      </c>
-      <c r="B63" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C63" t="n" s="106">
-        <v>28.0</v>
-      </c>
-      <c r="D63" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E63" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F63" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G63" t="n" s="108">
-        <v>2.5</v>
-      </c>
-      <c r="H63" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I63" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J63" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K63" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="3">
-        <v>247</v>
-      </c>
-      <c r="B64" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C64" t="n" s="106">
-        <v>3.0</v>
-      </c>
-      <c r="D64" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E64" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F64" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G64" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H64" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I64" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J64" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K64" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="3">
-        <v>232</v>
-      </c>
-      <c r="B65" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C65" t="n" s="106">
-        <v>2.0</v>
-      </c>
-      <c r="D65" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E65" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F65" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G65" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H65" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I65" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J65" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K65" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="3">
-        <v>233</v>
-      </c>
-      <c r="B66" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C66" t="n" s="106">
-        <v>7.0</v>
-      </c>
-      <c r="D66" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E66" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F66" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G66" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="H66" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I66" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J66" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K66" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="3">
-        <v>234</v>
-      </c>
-      <c r="B67" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C67" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D67" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E67" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F67" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G67" t="n" s="108">
-        <v>4.0</v>
-      </c>
-      <c r="H67" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I67" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J67" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K67" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="3">
-        <v>236</v>
-      </c>
-      <c r="B68" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C68" t="n" s="106">
-        <v>21.0</v>
-      </c>
-      <c r="D68" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E68" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F68" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G68" t="n" s="108">
-        <v>6.8</v>
-      </c>
-      <c r="H68" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I68" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J68" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K68" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="3">
-        <v>237</v>
-      </c>
-      <c r="B69" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C69" t="n" s="106">
-        <v>53.0</v>
-      </c>
-      <c r="D69" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E69" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F69" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G69" t="n" s="108">
-        <v>5.0</v>
-      </c>
-      <c r="H69" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I69" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J69" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K69" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="3">
-        <v>248</v>
-      </c>
-      <c r="B70" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C70" t="n" s="106">
-        <v>1.0</v>
-      </c>
-      <c r="D70" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E70" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F70" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G70" t="n" s="108">
-        <v>17.0</v>
-      </c>
-      <c r="H70" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I70" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J70" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K70" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="3">
-        <v>249</v>
-      </c>
-      <c r="B71" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C71" t="n" s="106">
-        <v>18.0</v>
-      </c>
-      <c r="D71" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E71" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F71" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G71" t="n" s="108">
-        <v>13.1</v>
-      </c>
-      <c r="H71" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I71" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J71" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K71" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="3">
-        <v>250</v>
-      </c>
-      <c r="B72" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C72" t="n" s="106">
-        <v>7.0</v>
-      </c>
-      <c r="D72" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E72" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F72" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G72" t="n" s="108">
-        <v>6.4</v>
-      </c>
-      <c r="H72" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I72" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J72" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K72" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="3">
-        <v>238</v>
-      </c>
-      <c r="B73" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C73" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D73" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E73" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F73" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G73" t="n" s="108">
-        <v>5.0</v>
-      </c>
-      <c r="H73" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I73" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J73" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K73" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="3">
-        <v>239</v>
-      </c>
-      <c r="B74" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C74" t="n" s="106">
-        <v>5.0</v>
-      </c>
-      <c r="D74" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E74" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F74" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G74" t="n" s="108">
-        <v>4.2</v>
-      </c>
-      <c r="H74" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I74" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J74" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K74" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="B75" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C75" t="n" s="106">
-        <v>17.0</v>
-      </c>
-      <c r="D75" t="n" s="108">
-        <v>2.0</v>
-      </c>
-      <c r="E75" t="n" s="108">
-        <v>1029.0</v>
-      </c>
-      <c r="F75" t="n" s="108">
-        <v>2057.0</v>
-      </c>
-      <c r="G75" t="n" s="108">
-        <v>4.1</v>
-      </c>
-      <c r="H75" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I75" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J75" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K75" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="3">
-        <v>251</v>
-      </c>
-      <c r="B76" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C76" t="n" s="106">
-        <v>4.0</v>
-      </c>
-      <c r="D76" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E76" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F76" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G76" t="n" s="108">
-        <v>7.0</v>
-      </c>
-      <c r="H76" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I76" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J76" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K76" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="3">
-        <v>241</v>
-      </c>
-      <c r="B77" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C77" t="n" s="106">
-        <v>8.0</v>
-      </c>
-      <c r="D77" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E77" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F77" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="G77" t="n" s="108">
-        <v>6.0</v>
-      </c>
-      <c r="H77" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I77" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J77" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K77" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="3">
-        <v>242</v>
-      </c>
-      <c r="B78" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C78" t="n" s="106">
-        <v>38.0</v>
-      </c>
-      <c r="D78" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="E78" t="n" s="108">
-        <v>891.0</v>
-      </c>
-      <c r="F78" t="n" s="108">
-        <v>891.0</v>
-      </c>
-      <c r="G78" t="n" s="108">
-        <v>6.7</v>
-      </c>
-      <c r="H78" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I78" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J78" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K78" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="3">
-        <v>243</v>
-      </c>
-      <c r="B79" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C79" t="n" s="106">
-        <v>387.0</v>
-      </c>
-      <c r="D79" t="n" s="108">
-        <v>27.0</v>
-      </c>
-      <c r="E79" t="n" s="108">
-        <v>1192.0</v>
-      </c>
-      <c r="F79" t="n" s="108">
-        <v>32175.0</v>
-      </c>
-      <c r="G79" t="n" s="108">
-        <v>1.3</v>
-      </c>
-      <c r="H79" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I79" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J79" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K79" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="3">
-        <v>243</v>
-      </c>
-      <c r="B80" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C80" t="n" s="106">
-        <v>2630.0</v>
-      </c>
-      <c r="D80" t="n" s="108">
-        <v>161.0</v>
-      </c>
-      <c r="E80" t="n" s="108">
-        <v>1251.0</v>
-      </c>
-      <c r="F80" t="n" s="108">
-        <v>201410.0</v>
-      </c>
-      <c r="G80" t="n" s="108">
-        <v>1.8</v>
-      </c>
-      <c r="H80" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I80" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J80" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K80" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="3">
-        <v>243</v>
-      </c>
-      <c r="B81" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C81" t="n" s="106">
-        <v>7.0</v>
-      </c>
-      <c r="D81" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="E81" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="F81" t="n" s="108">
-        <v>3.85</v>
-      </c>
-      <c r="G81" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H81" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I81" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J81" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K81" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="3">
-        <v>243</v>
-      </c>
-      <c r="B82" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C82" t="n" s="106">
-        <v>6247.0</v>
-      </c>
-      <c r="D82" t="n" s="108">
-        <v>25.0</v>
-      </c>
-      <c r="E82" t="n" s="108">
-        <v>136.0</v>
-      </c>
-      <c r="F82" t="n" s="108">
-        <v>3394.05</v>
-      </c>
-      <c r="G82" t="n" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="H82" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I82" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J82" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K82" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="3">
-        <v>243</v>
-      </c>
-      <c r="B83" t="s" s="106">
-        <v>244</v>
-      </c>
-      <c r="C83" t="n" s="106">
-        <v>418.0</v>
-      </c>
-      <c r="D83" t="n" s="108">
-        <v>23.0</v>
-      </c>
-      <c r="E83" t="n" s="108">
-        <v>375.0</v>
-      </c>
-      <c r="F83" t="n" s="108">
-        <v>8624.0</v>
-      </c>
-      <c r="G83" t="n" s="108">
-        <v>1.3</v>
-      </c>
-      <c r="H83" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I83" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J83" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K83" t="n" s="108">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="3">
-        <v>243</v>
-      </c>
-      <c r="B84" t="s" s="106">
-        <v>220</v>
-      </c>
-      <c r="C84" t="n" s="106">
-        <v>1887.0</v>
-      </c>
-      <c r="D84" t="n" s="108">
-        <v>142.0</v>
-      </c>
-      <c r="E84" t="n" s="108">
-        <v>770.0</v>
-      </c>
-      <c r="F84" t="n" s="108">
-        <v>109351.0</v>
-      </c>
-      <c r="G84" t="n" s="108">
-        <v>1.7</v>
-      </c>
-      <c r="H84" t="n" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="I84" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="J84" t="n" s="108">
-        <v>0.0</v>
-      </c>
-      <c r="K84" t="n" s="108">
-        <v>0.0</v>
-      </c>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="127"/>
+      <c r="L37" s="127"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="126"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="127"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="127"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="127"/>
+      <c r="L44" s="127"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
+      <c r="L45" s="127"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="126"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="127"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
+      <c r="K47" s="127"/>
+      <c r="L47" s="127"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="126"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="127"/>
+      <c r="K48" s="127"/>
+      <c r="L48" s="127"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="126"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="127"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="126"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
+      <c r="L52" s="127"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="126"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="127"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="126"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="127"/>
+      <c r="K54" s="127"/>
+      <c r="L54" s="127"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="126"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="127"/>
+      <c r="G55" s="127"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="127"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="127"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="126"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="127"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="126"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="127"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="126"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="127"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="126"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="127"/>
+      <c r="G60" s="127"/>
+      <c r="H60" s="128"/>
+      <c r="I60" s="127"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="127"/>
+      <c r="L60" s="127"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="127"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="127"/>
+      <c r="K61" s="127"/>
+      <c r="L61" s="127"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="127"/>
+      <c r="G62" s="127"/>
+      <c r="H62" s="128"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="127"/>
+      <c r="K62" s="127"/>
+      <c r="L62" s="127"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="126"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="127"/>
+      <c r="G63" s="127"/>
+      <c r="H63" s="128"/>
+      <c r="I63" s="127"/>
+      <c r="J63" s="127"/>
+      <c r="K63" s="127"/>
+      <c r="L63" s="127"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="126"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="127"/>
+      <c r="F64" s="127"/>
+      <c r="G64" s="127"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="127"/>
+      <c r="J64" s="127"/>
+      <c r="K64" s="127"/>
+      <c r="L64" s="127"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="126"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="127"/>
+      <c r="G65" s="127"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="127"/>
+      <c r="J65" s="127"/>
+      <c r="K65" s="127"/>
+      <c r="L65" s="127"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="126"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="127"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="127"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="127"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="127"/>
+      <c r="L66" s="127"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B67" s="126"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="127"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="127"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="127"/>
+      <c r="J67" s="127"/>
+      <c r="K67" s="127"/>
+      <c r="L67" s="127"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B68" s="126"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="127"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="127"/>
+      <c r="K68" s="127"/>
+      <c r="L68" s="127"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B69" s="126"/>
+      <c r="C69" s="126"/>
+      <c r="D69" s="127"/>
+      <c r="E69" s="127"/>
+      <c r="F69" s="127"/>
+      <c r="G69" s="127"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="127"/>
+      <c r="J69" s="127"/>
+      <c r="K69" s="127"/>
+      <c r="L69" s="127"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B70" s="126"/>
+      <c r="C70" s="126"/>
+      <c r="D70" s="127"/>
+      <c r="E70" s="127"/>
+      <c r="F70" s="127"/>
+      <c r="G70" s="127"/>
+      <c r="H70" s="128"/>
+      <c r="I70" s="127"/>
+      <c r="J70" s="127"/>
+      <c r="K70" s="127"/>
+      <c r="L70" s="127"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B71" s="126"/>
+      <c r="C71" s="126"/>
+      <c r="D71" s="127"/>
+      <c r="E71" s="127"/>
+      <c r="F71" s="127"/>
+      <c r="G71" s="127"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="127"/>
+      <c r="J71" s="127"/>
+      <c r="K71" s="127"/>
+      <c r="L71" s="127"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="126"/>
+      <c r="C72" s="126"/>
+      <c r="D72" s="127"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="127"/>
+      <c r="G72" s="127"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="127"/>
+      <c r="J72" s="127"/>
+      <c r="K72" s="127"/>
+      <c r="L72" s="127"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B73" s="126"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="127"/>
+      <c r="E73" s="127"/>
+      <c r="F73" s="127"/>
+      <c r="G73" s="127"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="127"/>
+      <c r="J73" s="127"/>
+      <c r="K73" s="127"/>
+      <c r="L73" s="127"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B74" s="126"/>
+      <c r="C74" s="126"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="127"/>
+      <c r="F74" s="127"/>
+      <c r="G74" s="127"/>
+      <c r="H74" s="128"/>
+      <c r="I74" s="127"/>
+      <c r="J74" s="127"/>
+      <c r="K74" s="127"/>
+      <c r="L74" s="127"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="127"/>
+      <c r="E75" s="127"/>
+      <c r="F75" s="127"/>
+      <c r="G75" s="127"/>
+      <c r="H75" s="128"/>
+      <c r="I75" s="127"/>
+      <c r="J75" s="127"/>
+      <c r="K75" s="127"/>
+      <c r="L75" s="127"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B76" s="126"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="127"/>
+      <c r="E76" s="127"/>
+      <c r="F76" s="127"/>
+      <c r="G76" s="127"/>
+      <c r="H76" s="128"/>
+      <c r="I76" s="127"/>
+      <c r="J76" s="127"/>
+      <c r="K76" s="127"/>
+      <c r="L76" s="127"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="127"/>
+      <c r="E77" s="127"/>
+      <c r="F77" s="127"/>
+      <c r="G77" s="127"/>
+      <c r="H77" s="128"/>
+      <c r="I77" s="127"/>
+      <c r="J77" s="127"/>
+      <c r="K77" s="127"/>
+      <c r="L77" s="127"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B78" s="126"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="127"/>
+      <c r="E78" s="127"/>
+      <c r="F78" s="127"/>
+      <c r="G78" s="127"/>
+      <c r="H78" s="128"/>
+      <c r="I78" s="127"/>
+      <c r="J78" s="127"/>
+      <c r="K78" s="127"/>
+      <c r="L78" s="127"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B79" s="126"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="127"/>
+      <c r="E79" s="127"/>
+      <c r="F79" s="127"/>
+      <c r="G79" s="127"/>
+      <c r="H79" s="128"/>
+      <c r="I79" s="127"/>
+      <c r="J79" s="127"/>
+      <c r="K79" s="127"/>
+      <c r="L79" s="127"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B80" s="126"/>
+      <c r="C80" s="126"/>
+      <c r="D80" s="127"/>
+      <c r="E80" s="127"/>
+      <c r="F80" s="127"/>
+      <c r="G80" s="127"/>
+      <c r="H80" s="128"/>
+      <c r="I80" s="127"/>
+      <c r="J80" s="127"/>
+      <c r="K80" s="127"/>
+      <c r="L80" s="127"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B81" s="126"/>
+      <c r="C81" s="126"/>
+      <c r="D81" s="127"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="127"/>
+      <c r="G81" s="127"/>
+      <c r="H81" s="128"/>
+      <c r="I81" s="127"/>
+      <c r="J81" s="127"/>
+      <c r="K81" s="127"/>
+      <c r="L81" s="127"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B82" s="126"/>
+      <c r="C82" s="126"/>
+      <c r="D82" s="127"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="127"/>
+      <c r="G82" s="127"/>
+      <c r="H82" s="128"/>
+      <c r="I82" s="127"/>
+      <c r="J82" s="127"/>
+      <c r="K82" s="127"/>
+      <c r="L82" s="127"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B83" s="126"/>
+      <c r="C83" s="126"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="128"/>
+      <c r="I83" s="127"/>
+      <c r="J83" s="127"/>
+      <c r="K83" s="127"/>
+      <c r="L83" s="127"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B84" s="126"/>
+      <c r="C84" s="126"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="128"/>
+      <c r="I84" s="127"/>
+      <c r="J84" s="127"/>
+      <c r="K84" s="127"/>
+      <c r="L84" s="127"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" s="126"/>
